--- a/biology/Médecine/Susan_Ofori-Atta/Susan_Ofori-Atta.xlsx
+++ b/biology/Médecine/Susan_Ofori-Atta/Susan_Ofori-Atta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Susan Ofori-Atta, également connue sous le nom Susan Gyankorama de-Graft Johnson (1917-1985), est une femme médecin ghanéenne et la première femme médecin en Côte-de-l'Or. Ses travaux sur la malnutrition infantile l'ont menée à identifier le syndrome du Kwashiorkor.
 </t>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ofori-Atta est née à Kyebi en 1917. Elle fait partie de la cour royale de Kyebi, étant l'une des trois enfants du Chef Nana Ofori- Atta I. Elle est d'abord scolarisée au Mary's Convent, à Elmina en 1921, puis effectue ses études secondaires à l'Achimota School en 1929. Ofori-Atta est l'un des élèves pionniers après l'ouverture du collège en 1927, elle est préfet en chef des jeunes filles dans sa dernière année, y est en contact avec Agnes Yewande Savage et obtient le Cambridge School Certificate. Elle poursuit ses études pour devenir sage-femme à l'hôpital Korle-Bu, elle a en outre poursuivi ses études à l'University of Edinburgh Medical School elle a obtenu son diplôme MB, Ch.B en 1949[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ofori-Atta est née à Kyebi en 1917. Elle fait partie de la cour royale de Kyebi, étant l'une des trois enfants du Chef Nana Ofori- Atta I. Elle est d'abord scolarisée au Mary's Convent, à Elmina en 1921, puis effectue ses études secondaires à l'Achimota School en 1929. Ofori-Atta est l'un des élèves pionniers après l'ouverture du collège en 1927, elle est préfet en chef des jeunes filles dans sa dernière année, y est en contact avec Agnes Yewande Savage et obtient le Cambridge School Certificate. Elle poursuit ses études pour devenir sage-femme à l'hôpital Korle-Bu, elle a en outre poursuivi ses études à l'University of Edinburgh Medical School elle a obtenu son diplôme MB, Ch.B en 1949.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ofori-Atta a commencé sa carrière en tant que sage-femme, puis a étudié pour devenir pédiatre, devenant la première femme médecin au Ghana[2],[3],[4]. En 1960, elle a donné de son temps à un hôpital congolais de qui était en sous-effectif[5].
-Elle occupe un poste à l'hôpital de Kumasi en 1951, puis ses compétences en pédiatrie la conduisent au Princess Louise Hospital for Women[2] de Korle-bu (actuellement Accra Children’s Hospital).
-Ses travaux sur la malnutrition infantile l'ont menée à identifier le syndrome du Kwashiorkor[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ofori-Atta a commencé sa carrière en tant que sage-femme, puis a étudié pour devenir pédiatre, devenant la première femme médecin au Ghana. En 1960, elle a donné de son temps à un hôpital congolais de qui était en sous-effectif.
+Elle occupe un poste à l'hôpital de Kumasi en 1951, puis ses compétences en pédiatrie la conduisent au Princess Louise Hospital for Women de Korle-bu (actuellement Accra Children’s Hospital).
+Ses travaux sur la malnutrition infantile l'ont menée à identifier le syndrome du Kwashiorkor.
 Elle épouse tardivement le Dr E.V.C De-Graft Johnson, avocat renommé. Elle décède en juillet 1985, au Royaume-Uni.
 </t>
         </is>
@@ -576,10 +592,12 @@
           <t>Autres activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dr Susan Ofori-Atta a fait partie de l'Assemblée constituante en 1969 qui a établi la Constitution de la Seconde république du Ghana[6].
-Elle a participé à la création de la Women's Society for Public Affairs dont elle est le pilier et à travers laquelle elle a réussi à obtenir que la loi sur les droits des femmes en matière d'héritage au Ghana soit modifiée : en 1985, elle remporte son combat contre le système d'héritage Akan (Akan System of Inheritance) qui déniait le droit à l'héritage aux femmes et aux enfants. La promulgation de la Loi de succession donne alors le droit à la femme et aux enfants d'hériter de leurs époux et pères décédés intestat[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Susan Ofori-Atta a fait partie de l'Assemblée constituante en 1969 qui a établi la Constitution de la Seconde république du Ghana.
+Elle a participé à la création de la Women's Society for Public Affairs dont elle est le pilier et à travers laquelle elle a réussi à obtenir que la loi sur les droits des femmes en matière d'héritage au Ghana soit modifiée : en 1985, elle remporte son combat contre le système d'héritage Akan (Akan System of Inheritance) qui déniait le droit à l'héritage aux femmes et aux enfants. La promulgation de la Loi de succession donne alors le droit à la femme et aux enfants d'hériter de leurs époux et pères décédés intestat.
 Elle est également l'un des fondateurs de l'Académie ghanéenne des arts et des sciences.
 </t>
         </is>
@@ -609,9 +627,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est nommée docteure honoris causa en science par l'université du Ghana pour son travail sur la malnutrition infantile, et elle reçoit la Royal Cross du pape Jean-Paul II lors de sa visite au Ghana en 1980[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est nommée docteure honoris causa en science par l'université du Ghana pour son travail sur la malnutrition infantile, et elle reçoit la Royal Cross du pape Jean-Paul II lors de sa visite au Ghana en 1980.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une maison de la femme à la Achimota School a été nommée d'après Ofori-Atta[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une maison de la femme à la Achimota School a été nommée d'après Ofori-Atta.
 </t>
         </is>
       </c>
